--- a/Code/Results/Cases/Case_3_102/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_102/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.5158192878806</v>
+        <v>10.90199178708178</v>
       </c>
       <c r="C2">
-        <v>13.3356787658927</v>
+        <v>8.604681879602609</v>
       </c>
       <c r="D2">
-        <v>4.126491617130967</v>
+        <v>3.822763447647317</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16.51793047908627</v>
+        <v>19.63438735485051</v>
       </c>
       <c r="G2">
-        <v>2.054219667705404</v>
+        <v>3.594575244415813</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.16298771385225</v>
+        <v>16.85341872438862</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.93140350847006</v>
+        <v>19.96750138311285</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.44181418740355</v>
+        <v>17.450539578481</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.41084749780203</v>
+        <v>10.30525769918317</v>
       </c>
       <c r="C3">
-        <v>12.63144709593757</v>
+        <v>8.228218988018671</v>
       </c>
       <c r="D3">
-        <v>3.964823623918141</v>
+        <v>3.758950552275222</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.92958728070555</v>
+        <v>19.61611033640073</v>
       </c>
       <c r="G3">
-        <v>2.059628909659641</v>
+        <v>3.59654367381797</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.38735707318188</v>
+        <v>16.97372054518728</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.63311842379289</v>
+        <v>19.36066237387102</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.24220610102637</v>
+        <v>17.50402461552709</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.69348744865999</v>
+        <v>9.920151481090317</v>
       </c>
       <c r="C4">
-        <v>12.17660473083113</v>
+        <v>7.986671605146648</v>
       </c>
       <c r="D4">
-        <v>3.861489075786052</v>
+        <v>3.71881348091502</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.58073600149634</v>
+        <v>19.61255712549032</v>
       </c>
       <c r="G4">
-        <v>2.063037324603875</v>
+        <v>3.59781563645894</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.54055946205373</v>
+        <v>17.0524799283568</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.17193254878007</v>
+        <v>18.98641733841324</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.13675116806186</v>
+        <v>17.54268122214089</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.39145590072112</v>
+        <v>9.758635869823667</v>
       </c>
       <c r="C5">
-        <v>11.98573938106848</v>
+        <v>7.885716823440275</v>
       </c>
       <c r="D5">
-        <v>3.818400812240998</v>
+        <v>3.702229425991182</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.44183638461486</v>
+        <v>19.6130353703958</v>
       </c>
       <c r="G5">
-        <v>2.064449243609455</v>
+        <v>3.598349952554913</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.60658622782501</v>
+        <v>17.08580235709037</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.56306004891232</v>
+        <v>18.83375315191545</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.09794738273758</v>
+        <v>17.55988866564775</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.34072061119721</v>
+        <v>9.73154369489805</v>
       </c>
       <c r="C6">
-        <v>11.95371755181589</v>
+        <v>7.86880399590877</v>
       </c>
       <c r="D6">
-        <v>3.811188332364989</v>
+        <v>3.699462266238967</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15.4189733265836</v>
+        <v>19.61323101242765</v>
       </c>
       <c r="G6">
-        <v>2.064685107575107</v>
+        <v>3.598439642131353</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.6177593117788</v>
+        <v>17.09140955852994</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.46112355315692</v>
+        <v>18.80840170126369</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.09175178403297</v>
+        <v>17.56283355552339</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.68945330524498</v>
+        <v>9.917991595339611</v>
       </c>
       <c r="C7">
-        <v>12.17405279072487</v>
+        <v>7.985320173926053</v>
       </c>
       <c r="D7">
-        <v>3.860911872223676</v>
+        <v>3.718590728415724</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15.57884936164009</v>
+        <v>19.61255578064717</v>
       </c>
       <c r="G7">
-        <v>2.06305627193854</v>
+        <v>3.597822777654121</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.54143571932825</v>
+        <v>17.05292436090307</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.16377648856999</v>
+        <v>18.98435873952126</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.13621114645857</v>
+        <v>17.54290740923208</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.14294213468765</v>
+        <v>10.70018714768957</v>
       </c>
       <c r="C8">
-        <v>13.09758904443137</v>
+        <v>8.47708665108148</v>
       </c>
       <c r="D8">
-        <v>4.07161870203073</v>
+        <v>3.80096643151218</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16.31258210199621</v>
+        <v>19.62649309114714</v>
       </c>
       <c r="G8">
-        <v>2.056067361334188</v>
+        <v>3.595240845372339</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.23696319863758</v>
+        <v>16.8938811819364</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.14879126265553</v>
+        <v>19.75875435168649</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.36936439735691</v>
+        <v>17.46776928360153</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.68181612394989</v>
+        <v>12.08137856926186</v>
       </c>
       <c r="C9">
-        <v>14.72575956773333</v>
+        <v>9.355550411847007</v>
       </c>
       <c r="D9">
-        <v>4.450750719468683</v>
+        <v>3.954401089951328</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.84398518817183</v>
+        <v>19.71466801954407</v>
       </c>
       <c r="G9">
-        <v>2.042999354909426</v>
+        <v>3.590677787090139</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.777111971867326</v>
+        <v>16.62097273869357</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.6510533274509</v>
+        <v>21.25374461567991</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.96752402363157</v>
+        <v>17.36691398763468</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.35424541739544</v>
+        <v>12.99868745165368</v>
       </c>
       <c r="C10">
-        <v>15.80475386200802</v>
+        <v>9.944873346085297</v>
       </c>
       <c r="D10">
-        <v>4.706338639009904</v>
+        <v>4.061530129337694</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.01943656546358</v>
+        <v>19.81638306162392</v>
       </c>
       <c r="G10">
-        <v>2.033698792684584</v>
+        <v>3.587626727834858</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>9.546316329701503</v>
+        <v>16.44443371926457</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.55884247972277</v>
+        <v>22.32474643394873</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.49950288854706</v>
+        <v>17.32158606168034</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.0725667413054</v>
+        <v>13.40817152857923</v>
       </c>
       <c r="C11">
-        <v>16.26899893871363</v>
+        <v>10.20020434636768</v>
       </c>
       <c r="D11">
-        <v>4.817180373264382</v>
+        <v>4.108921643223519</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>19.56452624031597</v>
+        <v>19.87059267935864</v>
       </c>
       <c r="G11">
-        <v>2.029508542716397</v>
+        <v>3.586303434060399</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>9.470662122005725</v>
+        <v>16.36937341199685</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.33165043343072</v>
+        <v>22.80363594590214</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.76299664531085</v>
+        <v>17.30729213960942</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.33840041843024</v>
+        <v>13.56187661535275</v>
       </c>
       <c r="C12">
-        <v>16.44086285705015</v>
+        <v>10.29501882333596</v>
       </c>
       <c r="D12">
-        <v>4.858333413875651</v>
+        <v>4.1266646060467</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19.77244764711495</v>
+        <v>19.89225141932937</v>
       </c>
       <c r="G12">
-        <v>2.02792507847628</v>
+        <v>3.585811577149039</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>9.446817600267048</v>
+        <v>16.34170907509014</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.00504779328632</v>
+        <v>22.98360810374066</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.86599548346921</v>
+        <v>17.30279458720241</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.28142456732958</v>
+        <v>13.52893492003474</v>
       </c>
       <c r="C13">
-        <v>16.40402592377741</v>
+        <v>10.27468272795148</v>
       </c>
       <c r="D13">
-        <v>4.849507542829254</v>
+        <v>4.1228525337312</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.72759999301218</v>
+        <v>19.88753672973489</v>
       </c>
       <c r="G13">
-        <v>2.028266006437505</v>
+        <v>3.585917096933429</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>9.451729222066549</v>
+        <v>16.34763323503786</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.85987407053298</v>
+        <v>22.94491157350491</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.84366731067285</v>
+        <v>17.30372242826686</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.09456136058444</v>
+        <v>13.42088968925759</v>
       </c>
       <c r="C14">
-        <v>16.2832178733436</v>
+        <v>10.20804254784242</v>
       </c>
       <c r="D14">
-        <v>4.82058274491011</v>
+        <v>4.110385495641307</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.58160150377512</v>
+        <v>19.87235196570273</v>
       </c>
       <c r="G14">
-        <v>2.029378220892926</v>
+        <v>3.586262783687615</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9.468600539501068</v>
+        <v>16.367082203871</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.38699079045812</v>
+        <v>22.81847083089093</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.77140506605113</v>
+        <v>17.30690375087164</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.97929508310762</v>
+        <v>13.35423613331617</v>
       </c>
       <c r="C15">
-        <v>16.20870327563484</v>
+        <v>10.16697842467115</v>
       </c>
       <c r="D15">
-        <v>4.802757376812216</v>
+        <v>4.102722323144636</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.49237121256295</v>
+        <v>19.86319775265941</v>
       </c>
       <c r="G15">
-        <v>2.030059827492593</v>
+        <v>3.586475729372731</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9.479578886609026</v>
+        <v>16.37909429393575</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.09770263370054</v>
+        <v>22.74083847492051</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.72756588963228</v>
+        <v>17.30897174867511</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.30644108753174</v>
+        <v>12.9723974949976</v>
       </c>
       <c r="C16">
-        <v>15.77387009807061</v>
+        <v>9.927926650448189</v>
       </c>
       <c r="D16">
-        <v>4.698982350075664</v>
+        <v>4.058405092463802</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.98402228450081</v>
+        <v>19.81299920984657</v>
       </c>
       <c r="G16">
-        <v>2.033973247621647</v>
+        <v>3.587714504752214</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9.551899354665135</v>
+        <v>16.44944509039632</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.44310651166295</v>
+        <v>22.29326700486855</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.48272591803187</v>
+        <v>17.32264799029565</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.88274320718513</v>
+        <v>12.73956079972242</v>
       </c>
       <c r="C17">
-        <v>15.50022855732499</v>
+        <v>9.777978791666072</v>
       </c>
       <c r="D17">
-        <v>4.633902593182839</v>
+        <v>4.030866739874475</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.67481465091256</v>
+        <v>19.78423037179231</v>
       </c>
       <c r="G17">
-        <v>2.036382764328792</v>
+        <v>3.588490975220588</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>9.604174976338179</v>
+        <v>16.49395048876018</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.42855403945492</v>
+        <v>22.01643501707193</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.33811416755855</v>
+        <v>17.33266233984829</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.63505045975686</v>
+        <v>12.60359245114301</v>
       </c>
       <c r="C18">
-        <v>15.34034127640505</v>
+        <v>9.690534083604495</v>
       </c>
       <c r="D18">
-        <v>4.595962198118169</v>
+        <v>4.014901661880395</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.49793833041807</v>
+        <v>19.76843134569217</v>
       </c>
       <c r="G18">
-        <v>2.037772658488358</v>
+        <v>3.58894366852376</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>9.636964819213601</v>
+        <v>16.52004250837544</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.84434810355425</v>
+        <v>21.85643542178042</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.25695180153454</v>
+        <v>17.33901746871044</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.55050202490883</v>
+        <v>12.55720570192442</v>
       </c>
       <c r="C19">
-        <v>15.2857806278619</v>
+        <v>9.660722260505429</v>
       </c>
       <c r="D19">
-        <v>4.583030098061885</v>
+        <v>4.009474884199571</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.43821848304795</v>
+        <v>19.76321083875672</v>
       </c>
       <c r="G19">
-        <v>2.038244009268944</v>
+        <v>3.58909798986747</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9.648517693398402</v>
+        <v>16.52896146991567</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.64636022413328</v>
+        <v>21.80213521240361</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.22981405870054</v>
+        <v>17.34127124085796</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.92826027542919</v>
+        <v>12.7645588156597</v>
       </c>
       <c r="C20">
-        <v>15.52961723083992</v>
+        <v>9.794065364030178</v>
       </c>
       <c r="D20">
-        <v>4.640883321933991</v>
+        <v>4.033811334485985</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.70762984944229</v>
+        <v>19.7872155150631</v>
       </c>
       <c r="G20">
-        <v>2.036125869462023</v>
+        <v>3.588407688893889</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9.598324372018535</v>
+        <v>16.48916168454792</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.53660583942446</v>
+        <v>22.04598561457517</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.35329898826464</v>
+        <v>17.33153465797574</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.14961598714346</v>
+        <v>13.45272370993435</v>
       </c>
       <c r="C21">
-        <v>16.31880992717596</v>
+        <v>10.22766752174013</v>
       </c>
       <c r="D21">
-        <v>4.829101264490346</v>
+        <v>4.114052959309922</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.62444340784183</v>
+        <v>19.87678150911103</v>
       </c>
       <c r="G21">
-        <v>2.029051470459008</v>
+        <v>3.586160996584371</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>9.463509635831336</v>
+        <v>16.36134892281676</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.52580550183697</v>
+        <v>22.85564812684195</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.79254170464077</v>
+        <v>17.30594443874687</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.91177457087495</v>
+        <v>13.89335634962653</v>
       </c>
       <c r="C22">
-        <v>16.81158355250725</v>
+        <v>10.50011569933144</v>
       </c>
       <c r="D22">
-        <v>4.947308367387962</v>
+        <v>4.165306934726969</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.23248327945818</v>
+        <v>19.94190221546919</v>
       </c>
       <c r="G22">
-        <v>2.024445474806293</v>
+        <v>3.584746521084343</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>9.40372478363123</v>
+        <v>16.28224440716433</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.49347504078733</v>
+        <v>23.37673724923724</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.09846054222747</v>
+        <v>17.29455660108878</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.50832640471462</v>
+        <v>13.66011829595604</v>
       </c>
       <c r="C23">
-        <v>16.55072927147555</v>
+        <v>10.35571700006107</v>
       </c>
       <c r="D23">
-        <v>4.88467323362662</v>
+        <v>4.138063690094262</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>19.90712700985272</v>
+        <v>19.90654779476408</v>
       </c>
       <c r="G23">
-        <v>2.026903186149998</v>
+        <v>3.585496541043168</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9.432829638401676</v>
+        <v>16.32405716845561</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.4408517657503</v>
+        <v>23.09941477102058</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.93341085856448</v>
+        <v>17.30014451784481</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.9076947843847</v>
+        <v>12.75326377377807</v>
       </c>
       <c r="C24">
-        <v>15.51633859945546</v>
+        <v>9.78679647670041</v>
       </c>
       <c r="D24">
-        <v>4.637728967325494</v>
+        <v>4.032480496474093</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.69279132234224</v>
+        <v>19.78586362430737</v>
       </c>
       <c r="G24">
-        <v>2.036241997022757</v>
+        <v>3.588445323046057</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>9.600960951979918</v>
+        <v>16.49132512947184</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.48775870279539</v>
+        <v>22.03262840840087</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.34642778264489</v>
+        <v>17.33204262153586</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.02865580389443</v>
+        <v>11.72458996854365</v>
       </c>
       <c r="C25">
-        <v>14.30549474074308</v>
+        <v>9.127522596027021</v>
       </c>
       <c r="D25">
-        <v>4.352066627031046</v>
+        <v>3.913830716589279</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.42052222080662</v>
+        <v>19.6843077917507</v>
       </c>
       <c r="G25">
-        <v>2.046474654435619</v>
+        <v>3.591859033998849</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>9.884588292288958</v>
+        <v>16.69060845779786</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.19297681518097</v>
+        <v>20.85324350144308</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.78991494429242</v>
+        <v>17.38917439015208</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_102/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_102/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.90199178708178</v>
+        <v>18.51581928788067</v>
       </c>
       <c r="C2">
-        <v>8.604681879602609</v>
+        <v>13.33567876589267</v>
       </c>
       <c r="D2">
-        <v>3.822763447647317</v>
+        <v>4.126491617130893</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.63438735485051</v>
+        <v>16.51793047908625</v>
       </c>
       <c r="G2">
-        <v>3.594575244415813</v>
+        <v>2.054219667705537</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.85341872438862</v>
+        <v>10.16298771385212</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.96750138311285</v>
+        <v>29.93140350847016</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.450539578481</v>
+        <v>12.44181418740349</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.30525769918317</v>
+        <v>17.41084749780204</v>
       </c>
       <c r="C3">
-        <v>8.228218988018671</v>
+        <v>12.63144709593756</v>
       </c>
       <c r="D3">
-        <v>3.758950552275222</v>
+        <v>3.964823623918069</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.61611033640073</v>
+        <v>15.92958728070557</v>
       </c>
       <c r="G3">
-        <v>3.59654367381797</v>
+        <v>2.059628909659642</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.97372054518728</v>
+        <v>10.38735707318183</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.36066237387102</v>
+        <v>27.63311842379295</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.50402461552709</v>
+        <v>12.24220610102634</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.920151481090317</v>
+        <v>16.69348744866004</v>
       </c>
       <c r="C4">
-        <v>7.986671605146648</v>
+        <v>12.17660473083123</v>
       </c>
       <c r="D4">
-        <v>3.71881348091502</v>
+        <v>3.861489075785982</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.61255712549032</v>
+        <v>15.58073600149635</v>
       </c>
       <c r="G4">
-        <v>3.59781563645894</v>
+        <v>2.063037324604009</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.0524799283568</v>
+        <v>10.54055946205374</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.98641733841324</v>
+        <v>26.17193254878001</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.54268122214089</v>
+        <v>12.13675116806183</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.758635869823667</v>
+        <v>16.39145590072117</v>
       </c>
       <c r="C5">
-        <v>7.885716823440275</v>
+        <v>11.98573938106853</v>
       </c>
       <c r="D5">
-        <v>3.702229425991182</v>
+        <v>3.818400812241118</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.6130353703958</v>
+        <v>15.4418363846148</v>
       </c>
       <c r="G5">
-        <v>3.598349952554913</v>
+        <v>2.064449243609321</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.08580235709037</v>
+        <v>10.60658622782501</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.83375315191545</v>
+        <v>25.56306004891233</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.55988866564775</v>
+        <v>12.09794738273754</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.73154369489805</v>
+        <v>16.34072061119714</v>
       </c>
       <c r="C6">
-        <v>7.86880399590877</v>
+        <v>11.95371755181596</v>
       </c>
       <c r="D6">
-        <v>3.699462266238967</v>
+        <v>3.811188332365094</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.61323101242765</v>
+        <v>15.41897332658372</v>
       </c>
       <c r="G6">
-        <v>3.598439642131353</v>
+        <v>2.064685107575243</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.09140955852994</v>
+        <v>10.61775931177898</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.80840170126369</v>
+        <v>25.46112355315686</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.56283355552339</v>
+        <v>12.09175178403311</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.917991595339611</v>
+        <v>16.68945330524506</v>
       </c>
       <c r="C7">
-        <v>7.985320173926053</v>
+        <v>12.17405279072483</v>
       </c>
       <c r="D7">
-        <v>3.718590728415724</v>
+        <v>3.860911872223606</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.61255578064717</v>
+        <v>15.57884936163999</v>
       </c>
       <c r="G7">
-        <v>3.597822777654121</v>
+        <v>2.06305627193881</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.05292436090307</v>
+        <v>10.54143571932807</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.98435873952126</v>
+        <v>26.16377648857002</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.54290740923208</v>
+        <v>12.13621114645843</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.70018714768957</v>
+        <v>18.14294213468777</v>
       </c>
       <c r="C8">
-        <v>8.47708665108148</v>
+        <v>13.09758904443129</v>
       </c>
       <c r="D8">
-        <v>3.80096643151218</v>
+        <v>4.071618702030694</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>19.62649309114714</v>
+        <v>16.31258210199611</v>
       </c>
       <c r="G8">
-        <v>3.595240845372339</v>
+        <v>2.056067361334323</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.8938811819364</v>
+        <v>10.23696319863735</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.75875435168649</v>
+        <v>29.14879126265559</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.46776928360153</v>
+        <v>12.36936439735678</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.08137856926186</v>
+        <v>20.68181612394995</v>
       </c>
       <c r="C9">
-        <v>9.355550411847007</v>
+        <v>14.72575956773314</v>
       </c>
       <c r="D9">
-        <v>3.954401089951328</v>
+        <v>4.450750719468622</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.71466801954407</v>
+        <v>17.84398518817187</v>
       </c>
       <c r="G9">
-        <v>3.590677787090139</v>
+        <v>2.042999354909426</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.62097273869357</v>
+        <v>9.777111971867221</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.25374461567991</v>
+        <v>34.65105332745087</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.36691398763468</v>
+        <v>12.96752402363159</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.99868745165368</v>
+        <v>22.35424541739546</v>
       </c>
       <c r="C10">
-        <v>9.944873346085297</v>
+        <v>15.80475386200809</v>
       </c>
       <c r="D10">
-        <v>4.061530129337694</v>
+        <v>4.706338639009801</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.81638306162392</v>
+        <v>19.01943656546359</v>
       </c>
       <c r="G10">
-        <v>3.587626727834858</v>
+        <v>2.033698792684851</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.44443371926457</v>
+        <v>9.546316329701481</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.32474643394873</v>
+        <v>38.55884247972291</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.32158606168034</v>
+        <v>13.49950288854705</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.40817152857923</v>
+        <v>23.0725667413054</v>
       </c>
       <c r="C11">
-        <v>10.20020434636768</v>
+        <v>16.26899893871362</v>
       </c>
       <c r="D11">
-        <v>4.108921643223519</v>
+        <v>4.817180373264329</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>19.87059267935864</v>
+        <v>19.564526240316</v>
       </c>
       <c r="G11">
-        <v>3.586303434060399</v>
+        <v>2.029508542716263</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.36937341199685</v>
+        <v>9.470662122005688</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.80363594590214</v>
+        <v>40.33165043343081</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.30729213960942</v>
+        <v>13.76299664531085</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.56187661535275</v>
+        <v>23.33840041843024</v>
       </c>
       <c r="C12">
-        <v>10.29501882333596</v>
+        <v>16.4408628570502</v>
       </c>
       <c r="D12">
-        <v>4.1266646060467</v>
+        <v>4.858333413875682</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19.89225141932937</v>
+        <v>19.77244764711494</v>
       </c>
       <c r="G12">
-        <v>3.585811577149039</v>
+        <v>2.027925078476145</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.34170907509014</v>
+        <v>9.446817600267043</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.98360810374066</v>
+        <v>41.00504779328625</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.30279458720241</v>
+        <v>13.86599548346921</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.52893492003474</v>
+        <v>23.28142456732949</v>
       </c>
       <c r="C13">
-        <v>10.27468272795148</v>
+        <v>16.40402592377747</v>
       </c>
       <c r="D13">
-        <v>4.1228525337312</v>
+        <v>4.849507542829385</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.88753672973489</v>
+        <v>19.72759999301228</v>
       </c>
       <c r="G13">
-        <v>3.585917096933429</v>
+        <v>2.02826600643737</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.34763323503786</v>
+        <v>9.451729222066765</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.94491157350491</v>
+        <v>40.85987407053293</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.30372242826686</v>
+        <v>13.84366731067297</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.42088968925759</v>
+        <v>23.09456136058442</v>
       </c>
       <c r="C14">
-        <v>10.20804254784242</v>
+        <v>16.2832178733436</v>
       </c>
       <c r="D14">
-        <v>4.110385495641307</v>
+        <v>4.820582744910175</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.87235196570273</v>
+        <v>19.58160150377513</v>
       </c>
       <c r="G14">
-        <v>3.586262783687615</v>
+        <v>2.029378220893061</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.367082203871</v>
+        <v>9.468600539501102</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.81847083089093</v>
+        <v>40.38699079045822</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.30690375087164</v>
+        <v>13.77140506605115</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.35423613331617</v>
+        <v>22.97929508310755</v>
       </c>
       <c r="C15">
-        <v>10.16697842467115</v>
+        <v>16.20870327563487</v>
       </c>
       <c r="D15">
-        <v>4.102722323144636</v>
+        <v>4.802757376812261</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.86319775265941</v>
+        <v>19.49237121256295</v>
       </c>
       <c r="G15">
-        <v>3.586475729372731</v>
+        <v>2.030059827492726</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.37909429393575</v>
+        <v>9.479578886609053</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.74083847492051</v>
+        <v>40.09770263370045</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.30897174867511</v>
+        <v>13.72756588963228</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.9723974949976</v>
+        <v>22.30644108753173</v>
       </c>
       <c r="C16">
-        <v>9.927926650448189</v>
+        <v>15.77387009807051</v>
       </c>
       <c r="D16">
-        <v>4.058405092463802</v>
+        <v>4.698982350075802</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.81299920984657</v>
+        <v>18.98402228450079</v>
       </c>
       <c r="G16">
-        <v>3.587714504752214</v>
+        <v>2.033973247621378</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.44944509039632</v>
+        <v>9.551899354665208</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.29326700486855</v>
+        <v>38.44310651166293</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.32264799029565</v>
+        <v>13.48272591803192</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.73956079972242</v>
+        <v>21.88274320718518</v>
       </c>
       <c r="C17">
-        <v>9.777978791666072</v>
+        <v>15.50022855732489</v>
       </c>
       <c r="D17">
-        <v>4.030866739874475</v>
+        <v>4.633902593182902</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.78423037179231</v>
+        <v>18.67481465091261</v>
       </c>
       <c r="G17">
-        <v>3.588490975220588</v>
+        <v>2.036382764328526</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.49395048876018</v>
+        <v>9.604174976338221</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.01643501707193</v>
+        <v>37.42855403945489</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.33266233984829</v>
+        <v>13.3381141675586</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.60359245114301</v>
+        <v>21.63505045975686</v>
       </c>
       <c r="C18">
-        <v>9.690534083604495</v>
+        <v>15.34034127640509</v>
       </c>
       <c r="D18">
-        <v>4.014901661880395</v>
+        <v>4.595962198118145</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.76843134569217</v>
+        <v>18.4979383304181</v>
       </c>
       <c r="G18">
-        <v>3.58894366852376</v>
+        <v>2.037772658488359</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.52004250837544</v>
+        <v>9.636964819213587</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.85643542178042</v>
+        <v>36.84434810355416</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.33901746871044</v>
+        <v>13.25695180153452</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.55720570192442</v>
+        <v>21.55050202490887</v>
       </c>
       <c r="C19">
-        <v>9.660722260505429</v>
+        <v>15.2857806278618</v>
       </c>
       <c r="D19">
-        <v>4.009474884199571</v>
+        <v>4.583030098061916</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>19.76321083875672</v>
+        <v>18.43821848304798</v>
       </c>
       <c r="G19">
-        <v>3.58909798986747</v>
+        <v>2.038244009268944</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.52896146991567</v>
+        <v>9.648517693398507</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.80213521240361</v>
+        <v>36.64636022413318</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.34127124085796</v>
+        <v>13.22981405870061</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.7645588156597</v>
+        <v>21.92826027542925</v>
       </c>
       <c r="C20">
-        <v>9.794065364030178</v>
+        <v>15.52961723083975</v>
       </c>
       <c r="D20">
-        <v>4.033811334485985</v>
+        <v>4.640883321934082</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>19.7872155150631</v>
+        <v>18.70762984944227</v>
       </c>
       <c r="G20">
-        <v>3.588407688893889</v>
+        <v>2.036125869461889</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.48916168454792</v>
+        <v>9.598324372018444</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.04598561457517</v>
+        <v>37.53660583942428</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.33153465797574</v>
+        <v>13.35329898826462</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.45272370993435</v>
+        <v>23.1496159871434</v>
       </c>
       <c r="C21">
-        <v>10.22766752174013</v>
+        <v>16.31880992717596</v>
       </c>
       <c r="D21">
-        <v>4.114052959309922</v>
+        <v>4.829101264490252</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.87678150911103</v>
+        <v>19.62444340784189</v>
       </c>
       <c r="G21">
-        <v>3.586160996584371</v>
+        <v>2.029051470459276</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.36134892281676</v>
+        <v>9.463509635831437</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.85564812684195</v>
+        <v>40.52580550183686</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.30594443874687</v>
+        <v>13.79254170464084</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.89335634962653</v>
+        <v>23.91177457087488</v>
       </c>
       <c r="C22">
-        <v>10.50011569933144</v>
+        <v>16.81158355250726</v>
       </c>
       <c r="D22">
-        <v>4.165306934726969</v>
+        <v>4.947308367387934</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19.94190221546919</v>
+        <v>20.2324832794582</v>
       </c>
       <c r="G22">
-        <v>3.584746521084343</v>
+        <v>2.024445474806426</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.28224440716433</v>
+        <v>9.403724783631393</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.37673724923724</v>
+        <v>42.49347504078723</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.29455660108878</v>
+        <v>14.09846054222754</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.66011829595604</v>
+        <v>23.50832640471461</v>
       </c>
       <c r="C23">
-        <v>10.35571700006107</v>
+        <v>16.55072927147566</v>
       </c>
       <c r="D23">
-        <v>4.138063690094262</v>
+        <v>4.884673233626646</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>19.90654779476408</v>
+        <v>19.90712700985272</v>
       </c>
       <c r="G23">
-        <v>3.585496541043168</v>
+        <v>2.026903186149863</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.32405716845561</v>
+        <v>9.432829638401653</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.09941477102058</v>
+        <v>41.4408517657503</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.30014451784481</v>
+        <v>13.93341085856447</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.75326377377807</v>
+        <v>21.9076947843847</v>
       </c>
       <c r="C24">
-        <v>9.78679647670041</v>
+        <v>15.51633859945536</v>
       </c>
       <c r="D24">
-        <v>4.032480496474093</v>
+        <v>4.637728967325622</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>19.78586362430737</v>
+        <v>18.69279132234229</v>
       </c>
       <c r="G24">
-        <v>3.588445323046057</v>
+        <v>2.036241997022891</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.49132512947184</v>
+        <v>9.600960951979975</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.03262840840087</v>
+        <v>37.48775870279542</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.33204262153586</v>
+        <v>13.34642778264493</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.72458996854365</v>
+        <v>20.0286558038944</v>
       </c>
       <c r="C25">
-        <v>9.127522596027021</v>
+        <v>14.30549474074292</v>
       </c>
       <c r="D25">
-        <v>3.913830716589279</v>
+        <v>4.352066627031066</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>19.6843077917507</v>
+        <v>17.42052222080671</v>
       </c>
       <c r="G25">
-        <v>3.591859033998849</v>
+        <v>2.046474654435484</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.69060845779786</v>
+        <v>9.884588292289141</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.85324350144308</v>
+        <v>33.19297681518084</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.38917439015208</v>
+        <v>12.78991494429255</v>
       </c>
     </row>
   </sheetData>
